--- a/Files/CLSI_ORG_ATC.xlsx
+++ b/Files/CLSI_ORG_ATC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALLYSA FILE\2023\DMU Files\DMU Projects\R Query Referred\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALLYSA FILE\2024\DMU Projects\r_query_referred\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="3" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="ebc" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="bs" sheetId="14" r:id="rId14"/>
     <sheet name="spn" sheetId="12" r:id="rId15"/>
     <sheet name="svi" sheetId="15" r:id="rId16"/>
+    <sheet name="hpi" sheetId="17" r:id="rId17"/>
+    <sheet name="hin" sheetId="18" r:id="rId18"/>
+    <sheet name="ps" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="262">
   <si>
     <t>Antibiotic Panels</t>
   </si>
@@ -3061,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3242,6 +3245,837 @@
       </c>
       <c r="E10" s="13" t="s">
         <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
